--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Myl9</t>
+  </si>
+  <si>
+    <t>Cd69</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myl9</t>
-  </si>
-  <si>
-    <t>Cd69</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.05649</v>
+        <v>2.311878333333333</v>
       </c>
       <c r="H2">
-        <v>27.16947</v>
+        <v>6.935635</v>
       </c>
       <c r="I2">
-        <v>0.05539951095224582</v>
+        <v>0.07117617058546093</v>
       </c>
       <c r="J2">
-        <v>0.0774334825073681</v>
+        <v>0.08462491442959398</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N2">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O2">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P2">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q2">
-        <v>0.01467755146</v>
+        <v>0.08267199857388891</v>
       </c>
       <c r="R2">
-        <v>0.13209796314</v>
+        <v>0.7440479871650001</v>
       </c>
       <c r="S2">
-        <v>2.742253100301973E-06</v>
+        <v>4.941161215182557E-05</v>
       </c>
       <c r="T2">
-        <v>3.836602668775754E-06</v>
+        <v>5.896082288762996E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.05649</v>
+        <v>2.311878333333333</v>
       </c>
       <c r="H3">
-        <v>27.16947</v>
+        <v>6.935635</v>
       </c>
       <c r="I3">
-        <v>0.05539951095224582</v>
+        <v>0.07117617058546093</v>
       </c>
       <c r="J3">
-        <v>0.0774334825073681</v>
+        <v>0.08462491442959398</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.38575</v>
       </c>
       <c r="O3">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P3">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q3">
-        <v>1.1645136725</v>
+        <v>0.2972690223611111</v>
       </c>
       <c r="R3">
-        <v>10.4806230525</v>
+        <v>2.67542120125</v>
       </c>
       <c r="S3">
-        <v>0.0002175697518390551</v>
+        <v>0.0001776725117456978</v>
       </c>
       <c r="T3">
-        <v>0.0003043952035130084</v>
+        <v>0.000212009222950468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.05649</v>
+        <v>2.311878333333333</v>
       </c>
       <c r="H4">
-        <v>27.16947</v>
+        <v>6.935635</v>
       </c>
       <c r="I4">
-        <v>0.05539951095224582</v>
+        <v>0.07117617058546093</v>
       </c>
       <c r="J4">
-        <v>0.0774334825073681</v>
+        <v>0.08462491442959398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N4">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O4">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P4">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q4">
-        <v>183.4953853763</v>
+        <v>81.85427564799721</v>
       </c>
       <c r="R4">
-        <v>1651.4584683867</v>
+        <v>736.688480831975</v>
       </c>
       <c r="S4">
-        <v>0.03428301994447676</v>
+        <v>0.04892287341611322</v>
       </c>
       <c r="T4">
-        <v>0.04796432750798531</v>
+        <v>0.05837763126971397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.05649</v>
+        <v>2.311878333333333</v>
       </c>
       <c r="H5">
-        <v>27.16947</v>
+        <v>6.935635</v>
       </c>
       <c r="I5">
-        <v>0.05539951095224582</v>
+        <v>0.07117617058546093</v>
       </c>
       <c r="J5">
-        <v>0.0774334825073681</v>
+        <v>0.08462491442959398</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N5">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O5">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P5">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q5">
-        <v>0.85255079913</v>
+        <v>1.289914827961667</v>
       </c>
       <c r="R5">
-        <v>5.11530479478</v>
+        <v>7.73948896777</v>
       </c>
       <c r="S5">
-        <v>0.0001592847470813205</v>
+        <v>0.00077095960285955</v>
       </c>
       <c r="T5">
-        <v>0.0001485669541055299</v>
+        <v>0.0006133026984027819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.05649</v>
+        <v>2.311878333333333</v>
       </c>
       <c r="H6">
-        <v>27.16947</v>
+        <v>6.935635</v>
       </c>
       <c r="I6">
-        <v>0.05539951095224582</v>
+        <v>0.07117617058546093</v>
       </c>
       <c r="J6">
-        <v>0.0774334825073681</v>
+        <v>0.08462491442959398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N6">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O6">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P6">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q6">
-        <v>110.99151734966</v>
+        <v>35.56277979544889</v>
       </c>
       <c r="R6">
-        <v>998.9236561469399</v>
+        <v>320.06501815904</v>
       </c>
       <c r="S6">
-        <v>0.02073689425574839</v>
+        <v>0.02125525344259063</v>
       </c>
       <c r="T6">
-        <v>0.02901235623909548</v>
+        <v>0.02536301041563913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>43.874437</v>
       </c>
       <c r="I7">
-        <v>0.08946152991225516</v>
+        <v>0.4502564526900649</v>
       </c>
       <c r="J7">
-        <v>0.1250429415796526</v>
+        <v>0.5353324499878688</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N7">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O7">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P7">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q7">
-        <v>0.02370194585488889</v>
+        <v>0.5229784141025555</v>
       </c>
       <c r="R7">
-        <v>0.213317512694</v>
+        <v>4.706805726923</v>
       </c>
       <c r="S7">
-        <v>4.428309086899877E-06</v>
+        <v>0.0003125750799203974</v>
       </c>
       <c r="T7">
-        <v>6.195512171758731E-06</v>
+        <v>0.0003729828500564806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>43.874437</v>
       </c>
       <c r="I8">
-        <v>0.08946152991225516</v>
+        <v>0.4502564526900649</v>
       </c>
       <c r="J8">
-        <v>0.1250429415796526</v>
+        <v>0.5353324499878688</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.38575</v>
       </c>
       <c r="O8">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P8">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q8">
         <v>1.880507119194444</v>
@@ -948,10 +948,10 @@
         <v>16.92456407275</v>
       </c>
       <c r="S8">
-        <v>0.0003513410592907501</v>
+        <v>0.00112394631828497</v>
       </c>
       <c r="T8">
-        <v>0.0004915505594931983</v>
+        <v>0.001341158422517803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>43.874437</v>
       </c>
       <c r="I9">
-        <v>0.08946152991225516</v>
+        <v>0.4502564526900649</v>
       </c>
       <c r="J9">
-        <v>0.1250429415796526</v>
+        <v>0.5353324499878688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N9">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O9">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P9">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q9">
-        <v>296.3162963975078</v>
+        <v>517.8055448561938</v>
       </c>
       <c r="R9">
-        <v>2666.84666757757</v>
+        <v>4660.249903705745</v>
       </c>
       <c r="S9">
-        <v>0.05536170557333982</v>
+        <v>0.3094833461614163</v>
       </c>
       <c r="T9">
-        <v>0.07745487363192836</v>
+        <v>0.3692936126760269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>43.874437</v>
       </c>
       <c r="I10">
-        <v>0.08946152991225516</v>
+        <v>0.4502564526900649</v>
       </c>
       <c r="J10">
-        <v>0.1250429415796526</v>
+        <v>0.5353324499878688</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N10">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O10">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P10">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q10">
-        <v>1.376735958623</v>
+        <v>8.159928666195666</v>
       </c>
       <c r="R10">
-        <v>8.260415751738</v>
+        <v>48.959571997174</v>
       </c>
       <c r="S10">
-        <v>0.0002572199089963968</v>
+        <v>0.004877047094491903</v>
       </c>
       <c r="T10">
-        <v>0.0002399123526585157</v>
+        <v>0.003879718382383568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>43.874437</v>
       </c>
       <c r="I11">
-        <v>0.08946152991225516</v>
+        <v>0.4502564526900649</v>
       </c>
       <c r="J11">
-        <v>0.1250429415796526</v>
+        <v>0.5353324499878688</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N11">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O11">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P11">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q11">
-        <v>179.2339098072971</v>
+        <v>224.9681451922276</v>
       </c>
       <c r="R11">
-        <v>1613.105188265674</v>
+        <v>2024.713306730048</v>
       </c>
       <c r="S11">
-        <v>0.0334868350615413</v>
+        <v>0.1344595380359513</v>
       </c>
       <c r="T11">
-        <v>0.04685040952340077</v>
+        <v>0.160444977656884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09339233333333334</v>
+        <v>15.4858515</v>
       </c>
       <c r="H12">
-        <v>0.280177</v>
+        <v>30.971703</v>
       </c>
       <c r="I12">
-        <v>0.0005712908194406214</v>
+        <v>0.4767654041879867</v>
       </c>
       <c r="J12">
-        <v>0.0007985095339904265</v>
+        <v>0.3779001801729472</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N12">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O12">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P12">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q12">
-        <v>0.0001513578415555556</v>
+        <v>0.5537688876894999</v>
       </c>
       <c r="R12">
-        <v>0.001362220574</v>
+        <v>3.322613326137</v>
       </c>
       <c r="S12">
-        <v>2.82786615595853E-08</v>
+        <v>0.0003309780091478716</v>
       </c>
       <c r="T12">
-        <v>3.956381283586262E-08</v>
+        <v>0.0002632948670325467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09339233333333334</v>
+        <v>15.4858515</v>
       </c>
       <c r="H13">
-        <v>0.280177</v>
+        <v>30.971703</v>
       </c>
       <c r="I13">
-        <v>0.0005712908194406214</v>
+        <v>0.4767654041879867</v>
       </c>
       <c r="J13">
-        <v>0.0007985095339904265</v>
+        <v>0.3779001801729472</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.38575</v>
       </c>
       <c r="O13">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P13">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q13">
-        <v>0.01200869752777778</v>
+        <v>1.991222405375</v>
       </c>
       <c r="R13">
-        <v>0.10807827775</v>
+        <v>11.94733443225</v>
       </c>
       <c r="S13">
-        <v>2.243622726575489E-06</v>
+        <v>0.00119011891450136</v>
       </c>
       <c r="T13">
-        <v>3.138984122055534E-06</v>
+        <v>0.0009467462873237529</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09339233333333334</v>
+        <v>15.4858515</v>
       </c>
       <c r="H14">
-        <v>0.280177</v>
+        <v>30.971703</v>
       </c>
       <c r="I14">
-        <v>0.0005712908194406214</v>
+        <v>0.4767654041879867</v>
       </c>
       <c r="J14">
-        <v>0.0007985095339904265</v>
+        <v>0.3779001801729472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N14">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O14">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P14">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q14">
-        <v>1.892241055441111</v>
+        <v>548.2914645846924</v>
       </c>
       <c r="R14">
-        <v>17.03016949897</v>
+        <v>3289.748787508155</v>
       </c>
       <c r="S14">
-        <v>0.0003535333475030491</v>
+        <v>0.3277042488576288</v>
       </c>
       <c r="T14">
-        <v>0.0004946177230621282</v>
+        <v>0.2606905723166075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09339233333333334</v>
+        <v>15.4858515</v>
       </c>
       <c r="H15">
-        <v>0.280177</v>
+        <v>30.971703</v>
       </c>
       <c r="I15">
-        <v>0.0005712908194406214</v>
+        <v>0.4767654041879867</v>
       </c>
       <c r="J15">
-        <v>0.0007985095339904265</v>
+        <v>0.3779001801729472</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N15">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O15">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P15">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q15">
-        <v>0.008791674083</v>
+        <v>8.640346330276499</v>
       </c>
       <c r="R15">
-        <v>0.052750044498</v>
+        <v>34.56138532110599</v>
       </c>
       <c r="S15">
-        <v>1.642576118820248E-06</v>
+        <v>0.00516418435617588</v>
       </c>
       <c r="T15">
-        <v>1.532052097461785E-06</v>
+        <v>0.002738758458890863</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09339233333333334</v>
+        <v>15.4858515</v>
       </c>
       <c r="H16">
-        <v>0.280177</v>
+        <v>30.971703</v>
       </c>
       <c r="I16">
-        <v>0.0005712908194406214</v>
+        <v>0.4767654041879867</v>
       </c>
       <c r="J16">
-        <v>0.0007985095339904265</v>
+        <v>0.3779001801729472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N16">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O16">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P16">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q16">
-        <v>1.144566690350445</v>
+        <v>238.213196126752</v>
       </c>
       <c r="R16">
-        <v>10.301100213154</v>
+        <v>1429.279176760512</v>
       </c>
       <c r="S16">
-        <v>0.000213842994430617</v>
+        <v>0.1423758740505327</v>
       </c>
       <c r="T16">
-        <v>0.0002991812108959451</v>
+        <v>0.1132608082430926</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05853</v>
+      </c>
+      <c r="H17">
+        <v>0.17559</v>
+      </c>
+      <c r="I17">
+        <v>0.001801972536487443</v>
+      </c>
+      <c r="J17">
+        <v>0.002142455409590096</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>139.5530165</v>
-      </c>
-      <c r="H17">
-        <v>279.106033</v>
-      </c>
-      <c r="I17">
-        <v>0.8536606197335495</v>
-      </c>
-      <c r="J17">
-        <v>0.7954572586070471</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.001620666666666667</v>
+        <v>0.03575966666666667</v>
       </c>
       <c r="N17">
-        <v>0.004862</v>
+        <v>0.107279</v>
       </c>
       <c r="O17">
-        <v>4.949959039648898E-05</v>
+        <v>0.0006942156587716005</v>
       </c>
       <c r="P17">
-        <v>4.954707633626947E-05</v>
+        <v>0.0006967312556243</v>
       </c>
       <c r="Q17">
-        <v>0.2261689220743334</v>
+        <v>0.00209301329</v>
       </c>
       <c r="R17">
-        <v>1.357013532446</v>
+        <v>0.01883711961</v>
       </c>
       <c r="S17">
-        <v>4.225585101442363E-05</v>
+        <v>1.250957551505962E-06</v>
       </c>
       <c r="T17">
-        <v>3.9412581514443E-05</v>
+        <v>1.492715647642781E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>139.5530165</v>
+        <v>0.05853</v>
       </c>
       <c r="H18">
-        <v>279.106033</v>
+        <v>0.17559</v>
       </c>
       <c r="I18">
-        <v>0.8536606197335495</v>
+        <v>0.001801972536487443</v>
       </c>
       <c r="J18">
-        <v>0.7954572586070471</v>
+        <v>0.002142455409590096</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.38575</v>
       </c>
       <c r="O18">
-        <v>0.003927286506673307</v>
+        <v>0.002496235893055909</v>
       </c>
       <c r="P18">
-        <v>0.003931054030587401</v>
+        <v>0.002505281386450971</v>
       </c>
       <c r="Q18">
-        <v>17.94419203829167</v>
+        <v>0.007525982499999999</v>
       </c>
       <c r="R18">
-        <v>107.66515222975</v>
+        <v>0.0677338425</v>
       </c>
       <c r="S18">
-        <v>0.003352569833157942</v>
+        <v>4.498148523880953E-06</v>
       </c>
       <c r="T18">
-        <v>0.003126985462607237</v>
+        <v>5.367453658947258E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>139.5530165</v>
+        <v>0.05853</v>
       </c>
       <c r="H19">
-        <v>279.106033</v>
+        <v>0.17559</v>
       </c>
       <c r="I19">
-        <v>0.8536606197335495</v>
+        <v>0.001801972536487443</v>
       </c>
       <c r="J19">
-        <v>0.7954572586070471</v>
+        <v>0.002142455409590096</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.26120333333333</v>
+        <v>35.40596166666666</v>
       </c>
       <c r="N19">
-        <v>60.78361</v>
+        <v>106.217885</v>
       </c>
       <c r="O19">
-        <v>0.6188325376017958</v>
+        <v>0.6873490525508356</v>
       </c>
       <c r="P19">
-        <v>0.6194261959407718</v>
+        <v>0.6898397672033435</v>
       </c>
       <c r="Q19">
-        <v>2827.512043086522</v>
+        <v>2.07231093635</v>
       </c>
       <c r="R19">
-        <v>16965.07225851913</v>
+        <v>18.65079842715</v>
       </c>
       <c r="S19">
-        <v>0.5282729675604341</v>
+        <v>0.00123858411567727</v>
       </c>
       <c r="T19">
-        <v>0.4927270637324379</v>
+        <v>0.001477950940995176</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>139.5530165</v>
+        <v>0.05853</v>
       </c>
       <c r="H20">
-        <v>279.106033</v>
+        <v>0.17559</v>
       </c>
       <c r="I20">
-        <v>0.8536606197335495</v>
+        <v>0.001801972536487443</v>
       </c>
       <c r="J20">
-        <v>0.7954572586070471</v>
+        <v>0.002142455409590096</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.094137</v>
+        <v>0.557951</v>
       </c>
       <c r="N20">
-        <v>0.188274</v>
+        <v>1.115902</v>
       </c>
       <c r="O20">
-        <v>0.002875201321156489</v>
+        <v>0.01083170949656335</v>
       </c>
       <c r="P20">
-        <v>0.001918639705910078</v>
+        <v>0.007247306570844877</v>
       </c>
       <c r="Q20">
-        <v>13.1371023142605</v>
+        <v>0.03265687203</v>
       </c>
       <c r="R20">
-        <v>52.548409257042</v>
+        <v>0.19594123218</v>
       </c>
       <c r="S20">
-        <v>0.002454446141677168</v>
+        <v>1.951844303601738E-05</v>
       </c>
       <c r="T20">
-        <v>0.001526195880717861</v>
+        <v>1.552703116766445E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>139.5530165</v>
+        <v>0.05853</v>
       </c>
       <c r="H21">
-        <v>279.106033</v>
+        <v>0.17559</v>
       </c>
       <c r="I21">
-        <v>0.8536606197335495</v>
+        <v>0.001801972536487443</v>
       </c>
       <c r="J21">
-        <v>0.7954572586070471</v>
+        <v>0.002142455409590096</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.25546733333333</v>
+        <v>15.38263466666667</v>
       </c>
       <c r="N21">
-        <v>36.766402</v>
+        <v>46.147904</v>
       </c>
       <c r="O21">
-        <v>0.374315474979978</v>
+        <v>0.2986287864007734</v>
       </c>
       <c r="P21">
-        <v>0.3746745632463946</v>
+        <v>0.2997109135837364</v>
       </c>
       <c r="Q21">
-        <v>1710.287434983878</v>
+        <v>0.90034560704</v>
       </c>
       <c r="R21">
-        <v>10261.72460990327</v>
+        <v>8.103110463359998</v>
       </c>
       <c r="S21">
-        <v>0.3195383803472659</v>
+        <v>0.0005381208716987684</v>
       </c>
       <c r="T21">
-        <v>0.2980376009497697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1482806666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.444842</v>
-      </c>
-      <c r="I22">
-        <v>0.0009070485825089314</v>
-      </c>
-      <c r="J22">
-        <v>0.001267807771941913</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.001620666666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.004862</v>
-      </c>
-      <c r="O22">
-        <v>4.949959039648898E-05</v>
-      </c>
-      <c r="P22">
-        <v>4.954707633626947E-05</v>
-      </c>
-      <c r="Q22">
-        <v>0.0002403135337777778</v>
-      </c>
-      <c r="R22">
-        <v>0.002162821804</v>
-      </c>
-      <c r="S22">
-        <v>4.489853330390804E-08</v>
-      </c>
-      <c r="T22">
-        <v>6.281616845612167E-08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1482806666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.444842</v>
-      </c>
-      <c r="I23">
-        <v>0.0009070485825089314</v>
-      </c>
-      <c r="J23">
-        <v>0.001267807771941913</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1285833333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.38575</v>
-      </c>
-      <c r="O23">
-        <v>0.003927286506673307</v>
-      </c>
-      <c r="P23">
-        <v>0.003931054030587401</v>
-      </c>
-      <c r="Q23">
-        <v>0.01906642238888889</v>
-      </c>
-      <c r="R23">
-        <v>0.1715978015</v>
-      </c>
-      <c r="S23">
-        <v>3.562239658984476E-06</v>
-      </c>
-      <c r="T23">
-        <v>4.983820851902289E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1482806666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.444842</v>
-      </c>
-      <c r="I24">
-        <v>0.0009070485825089314</v>
-      </c>
-      <c r="J24">
-        <v>0.001267807771941913</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>20.26120333333333</v>
-      </c>
-      <c r="N24">
-        <v>60.78361</v>
-      </c>
-      <c r="O24">
-        <v>0.6188325376017958</v>
-      </c>
-      <c r="P24">
-        <v>0.6194261959407718</v>
-      </c>
-      <c r="Q24">
-        <v>3.004344737735556</v>
-      </c>
-      <c r="R24">
-        <v>27.03910263962</v>
-      </c>
-      <c r="S24">
-        <v>0.0005613111760421139</v>
-      </c>
-      <c r="T24">
-        <v>0.0007853133453581246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1482806666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.444842</v>
-      </c>
-      <c r="I25">
-        <v>0.0009070485825089314</v>
-      </c>
-      <c r="J25">
-        <v>0.001267807771941913</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.094137</v>
-      </c>
-      <c r="N25">
-        <v>0.188274</v>
-      </c>
-      <c r="O25">
-        <v>0.002875201321156489</v>
-      </c>
-      <c r="P25">
-        <v>0.001918639705910078</v>
-      </c>
-      <c r="Q25">
-        <v>0.013958697118</v>
-      </c>
-      <c r="R25">
-        <v>0.083752182708</v>
-      </c>
-      <c r="S25">
-        <v>2.6079472827828E-06</v>
-      </c>
-      <c r="T25">
-        <v>2.432466330709143E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1482806666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.444842</v>
-      </c>
-      <c r="I26">
-        <v>0.0009070485825089314</v>
-      </c>
-      <c r="J26">
-        <v>0.001267807771941913</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>12.25546733333333</v>
-      </c>
-      <c r="N26">
-        <v>36.766402</v>
-      </c>
-      <c r="O26">
-        <v>0.374315474979978</v>
-      </c>
-      <c r="P26">
-        <v>0.3746745632463946</v>
-      </c>
-      <c r="Q26">
-        <v>1.817248866498222</v>
-      </c>
-      <c r="R26">
-        <v>16.355239798484</v>
-      </c>
-      <c r="S26">
-        <v>0.0003395223209917464</v>
-      </c>
-      <c r="T26">
-        <v>0.0004750153232327208</v>
+        <v>0.0006421172681206657</v>
       </c>
     </row>
   </sheetData>
